--- a/src/main/resources/template/ExportIntetface.xlsx
+++ b/src/main/resources/template/ExportIntetface.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:O22"/>
 </workbook>
 </file>
 
@@ -33,7 +32,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属项目(ID)</t>
+    <r>
+      <t>所属项目(格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目名称(项目ID)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -41,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +86,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -399,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.625" style="2" customWidth="1"/>
@@ -426,14 +460,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"GET,POST"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1 A1"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>"App(1)"</formula1>
-    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/src/main/resources/template/ExportIntetface.xlsx
+++ b/src/main/resources/template/ExportIntetface.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="186">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,2547 @@
   </si>
   <si>
     <t>接口描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页-轮播图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/api/banner/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页-列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/api/index/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分享圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/coterie/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content":"哈哈","coterieId":"1296"}</t>
+  </si>
+  <si>
+    <r>
+      <t>分享圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/coterie/commentList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"coterieId":"2","orderType":"2","page":1,"pageSize":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分享圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论点赞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/coterie/commentPraise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"value":164}</t>
+  </si>
+  <si>
+    <r>
+      <t>分享圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/coterie/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page":1,"pageSize":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分享圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发布</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/coterie/publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>分享圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的分享</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/coterie/mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <r>
+      <t>分享圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点赞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/coterie/praise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"value":2}</t>
+  </si>
+  <si>
+    <r>
+      <t>分享圈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>详情</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/coterie/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"value":2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友盟推送-设备登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/device/regis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友盟推送-设备解绑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/device/unRegis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传渠道推广信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/uploadChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保存收货信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/saveReceiverInfo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改某条消息状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/message/updateOneMessageStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送手机绑定验证码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/userPhoneBindCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头像修改</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/updateHeadImg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送验证码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/password/sendUpdateVerificationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/password/updatePassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新旧密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/password/updatePasswordByOld</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>帮助中心</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/helpCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忘记密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送验证码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/password/sendForgetVerificationCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>忘记密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入新密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/password/newForgetpassword</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机绑定</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/userPhoneBind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推送标志</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/propFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昵称修改</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/updateNickname</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据邀请码获得用户信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getinvitationuserinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/register/init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发送验证码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/register/sendVerificationCode</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本更新</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/appVersionUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户个人信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getUserPersonalInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绑定邀请码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/userinvitationcodebind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取好友总金叶子流水以及好友流水排行榜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getleafchangeranking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取手机绑定信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getUserPhoneBindInfo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取收货信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getReceiverInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取未读的消息数量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/message/getUnreadCount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取消息列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/message/getMsgList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取用户金叶子数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getUseAmount</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得流水排行榜说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/awardbackrule/list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得用户返利记录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/awardbacklog/backlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得自己邀请码和二维码信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getinvitationcodeandqr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置推送标志</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/setPropFlag</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金叶子明细</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/findLeafList</t>
+  </si>
+  <si>
+    <t>排行榜-首页前三名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/ranking/topThreeProfit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手好礼-判断新人当天是否已领取礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/newuseraward/isreceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手好礼-获取领取7天礼包列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/newuseraward/getnewuserawardlog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手好礼-获得下次签到获得奖品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/newuseraward/getnextaward</t>
+  </si>
+  <si>
+    <t>新手好礼-领取礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碎片系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我的碎片包</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/fragment/bagMe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碎片系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碎片合成</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/fragment/combine</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碎片系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碎片合成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(v1.0.7above)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/app/fragment/combineAwards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>碎片系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取碎片记录</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/fragment/findUserFragmentRecordForApp</t>
+  </si>
+  <si>
+    <t>碎片系统-套圈次数及倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/podium/times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>福利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>福利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实物列表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api_inventory/api/app/welfarebag/awardsListByApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>福利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>福利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实物列表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api_inventory/api/app/welfarebag/awardsListByAppNew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>福利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>福利领取</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api_inventory/api/app/welfarebag/saveAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签到抽奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抽奖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/userchecklottery/lottery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签到抽奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签到奖励列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/userchecklottery/checkawardlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签到抽奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获得抽奖奖品列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/userchecklottery/lotteryawardlist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签到抽奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>领取签到奖励</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/userchecklottery/receivecheckaward</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>审核状态</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/audit/init</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收藏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/information/collect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点赞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/information/praise</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/information/publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评论列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/information/commentList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资讯列表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Andriod</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/information/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资讯列表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/information/pageList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资讯详情</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/information/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咨询</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资讯页轮播图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/banner/information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运营位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/operatingposition/list</t>
+  </si>
+  <si>
+    <t>待定（包含图片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"recAddress":"苏州工业园区","recMobile":"13151815253","recName":"周洲"}</t>
+  </si>
+  <si>
+    <t>{"page":1,"pageSize":10,"value":1}</t>
+  </si>
+  <si>
+    <t>{"username":"13151815253"}</t>
+  </si>
+  <si>
+    <t>/api/newuseraward/receive/{receiveDay}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"value":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"13151815253"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deviceToken":"ArPm5AVQFDquOgFXXgPIId1vpsDcot_Q_2O0WU7AWeEv","clientType":1}</t>
+  </si>
+  <si>
+    <t>{"params":"2017-07-31","pageSize":10,"page":1}</t>
+  </si>
+  <si>
+    <t>{"parentInvitationCode":"123456789"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nickname":"zhouzhou"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page":1,"pageSize":100}</t>
+  </si>
+  <si>
+    <t>{"newPassword":"zhouzhou","smsCode":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"newPassword":"zhouzhou","oldPassword":"zhou1234"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"newPassword":"zhouzhou","smsCode":"123456","username":"13151815253"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"13151815253","smsCode":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password":"zhouzhou","smsCode":"123456","username":"13151815253"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"feverStatus":0,"notDisturbStatus":0,"prizeStatus":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"receiveDay":7}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"fragmentId":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"awardsId":1,"fragmentId":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"checkDay":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content":"资讯内容","informationId":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"page":1,"pageSize":10,"tagId":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"value":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App(1)</t>
+  </si>
+  <si>
+    <t>App(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -45,7 +2586,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项目名称(项目ID)</t>
+      <t>名称(ID)</t>
     </r>
     <r>
       <rPr>
@@ -59,6 +2600,44 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数(录入案例默认值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>案例版本(格式：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>版本号(ID)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.7(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +2645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +2679,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,15 +2730,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,35 +3046,1446 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="34.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/template/ExportIntetface.xlsx
+++ b/src/main/resources/template/ExportIntetface.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="185">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2566,15 +2566,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>App(1)</t>
-  </si>
-  <si>
-    <t>App(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>所属项目(格式：</t>
+    <t>请求参数(录入案例默认值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>所属项目(</t>
     </r>
     <r>
       <rPr>
@@ -2586,7 +2583,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>名称(ID)</t>
+      <t>名称</t>
     </r>
     <r>
       <rPr>
@@ -2603,12 +2600,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求参数(录入案例默认值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>案例版本(格式：</t>
+    <r>
+      <t>案例版本(</t>
     </r>
     <r>
       <rPr>
@@ -2620,7 +2613,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>版本号(ID)</t>
+      <t>版本号</t>
     </r>
     <r>
       <rPr>
@@ -2637,7 +2630,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.7(4)</t>
+    <t>App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3052,19 +3049,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="86" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="27" customHeight="1">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -3079,15 +3076,15 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -3099,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -3107,7 +3104,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -3119,7 +3116,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
@@ -3127,7 +3124,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -3139,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>13</v>
@@ -3147,7 +3144,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -3159,7 +3156,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
@@ -3167,7 +3164,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -3179,7 +3176,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>19</v>
@@ -3187,7 +3184,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -3200,7 +3197,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
@@ -3208,7 +3205,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -3220,7 +3217,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>154</v>
@@ -3228,7 +3225,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -3240,7 +3237,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>27</v>
@@ -3248,7 +3245,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
@@ -3260,7 +3257,7 @@
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>30</v>
@@ -3268,7 +3265,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
@@ -3280,7 +3277,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>33</v>
@@ -3288,7 +3285,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
@@ -3300,7 +3297,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>162</v>
@@ -3308,7 +3305,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
@@ -3320,7 +3317,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7</v>
@@ -3328,7 +3325,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>38</v>
@@ -3340,7 +3337,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>155</v>
@@ -3348,7 +3345,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>40</v>
@@ -3360,7 +3357,7 @@
         <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>156</v>
@@ -3368,7 +3365,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>42</v>
@@ -3380,7 +3377,7 @@
         <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>160</v>
@@ -3388,7 +3385,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>44</v>
@@ -3400,7 +3397,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>161</v>
@@ -3408,7 +3405,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>46</v>
@@ -3420,7 +3417,7 @@
         <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>7</v>
@@ -3428,7 +3425,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>48</v>
@@ -3440,7 +3437,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>7</v>
@@ -3448,7 +3445,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>50</v>
@@ -3460,7 +3457,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>167</v>
@@ -3468,7 +3465,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>52</v>
@@ -3480,7 +3477,7 @@
         <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>168</v>
@@ -3488,7 +3485,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>54</v>
@@ -3500,7 +3497,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>7</v>
@@ -3508,7 +3505,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>56</v>
@@ -3520,7 +3517,7 @@
         <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>158</v>
@@ -3528,7 +3525,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>58</v>
@@ -3540,7 +3537,7 @@
         <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>169</v>
@@ -3548,7 +3545,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>60</v>
@@ -3560,7 +3557,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>170</v>
@@ -3568,7 +3565,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>62</v>
@@ -3580,7 +3577,7 @@
         <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>7</v>
@@ -3588,7 +3585,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>64</v>
@@ -3600,7 +3597,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>165</v>
@@ -3608,7 +3605,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>66</v>
@@ -3621,7 +3618,7 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>164</v>
@@ -3629,7 +3626,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>68</v>
@@ -3641,7 +3638,7 @@
         <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>171</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>70</v>
@@ -3661,7 +3658,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>158</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>72</v>
@@ -3681,7 +3678,7 @@
         <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>7</v>
@@ -3689,7 +3686,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>74</v>
@@ -3701,7 +3698,7 @@
         <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>7</v>
@@ -3709,7 +3706,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>76</v>
@@ -3721,7 +3718,7 @@
         <v>77</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>164</v>
@@ -3729,7 +3726,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>78</v>
@@ -3741,7 +3738,7 @@
         <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>155</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>80</v>
@@ -3761,7 +3758,7 @@
         <v>81</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>7</v>
@@ -3769,7 +3766,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>82</v>
@@ -3781,7 +3778,7 @@
         <v>83</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>7</v>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>84</v>
@@ -3801,7 +3798,7 @@
         <v>85</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>7</v>
@@ -3809,7 +3806,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>86</v>
@@ -3821,7 +3818,7 @@
         <v>87</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>157</v>
@@ -3829,7 +3826,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>88</v>
@@ -3841,7 +3838,7 @@
         <v>89</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>7</v>
@@ -3849,7 +3846,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>90</v>
@@ -3861,7 +3858,7 @@
         <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>7</v>
@@ -3869,7 +3866,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>92</v>
@@ -3881,7 +3878,7 @@
         <v>93</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>27</v>
@@ -3889,7 +3886,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>94</v>
@@ -3901,7 +3898,7 @@
         <v>95</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>7</v>
@@ -3909,7 +3906,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>96</v>
@@ -3921,7 +3918,7 @@
         <v>97</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>172</v>
@@ -3929,7 +3926,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>98</v>
@@ -3941,7 +3938,7 @@
         <v>99</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>163</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>100</v>
@@ -3961,7 +3958,7 @@
         <v>101</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>7</v>
@@ -3969,7 +3966,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>102</v>
@@ -3981,7 +3978,7 @@
         <v>103</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>7</v>
@@ -3989,7 +3986,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>104</v>
@@ -4001,7 +3998,7 @@
         <v>105</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>7</v>
@@ -4009,7 +4006,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>106</v>
@@ -4021,7 +4018,7 @@
         <v>107</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>7</v>
@@ -4029,7 +4026,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>108</v>
@@ -4041,7 +4038,7 @@
         <v>159</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>173</v>
@@ -4049,7 +4046,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>109</v>
@@ -4061,7 +4058,7 @@
         <v>110</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>166</v>
@@ -4069,7 +4066,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>111</v>
@@ -4081,7 +4078,7 @@
         <v>112</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>174</v>
@@ -4089,7 +4086,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>113</v>
@@ -4101,7 +4098,7 @@
         <v>114</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>175</v>
@@ -4109,7 +4106,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>115</v>
@@ -4121,7 +4118,7 @@
         <v>116</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>27</v>
@@ -4129,7 +4126,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>117</v>
@@ -4141,7 +4138,7 @@
         <v>119</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>7</v>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>120</v>
@@ -4161,7 +4158,7 @@
         <v>121</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>179</v>
@@ -4169,7 +4166,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>122</v>
@@ -4181,7 +4178,7 @@
         <v>123</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>27</v>
@@ -4189,7 +4186,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>124</v>
@@ -4201,7 +4198,7 @@
         <v>125</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>155</v>
@@ -4209,7 +4206,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>126</v>
@@ -4221,7 +4218,7 @@
         <v>127</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>7</v>
@@ -4229,7 +4226,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>128</v>
@@ -4241,7 +4238,7 @@
         <v>129</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>7</v>
@@ -4249,7 +4246,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>130</v>
@@ -4261,7 +4258,7 @@
         <v>131</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>7</v>
@@ -4269,7 +4266,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>132</v>
@@ -4281,7 +4278,7 @@
         <v>133</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>176</v>
@@ -4289,7 +4286,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>134</v>
@@ -4301,7 +4298,7 @@
         <v>135</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>7</v>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>136</v>
@@ -4321,7 +4318,7 @@
         <v>137</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>160</v>
@@ -4329,7 +4326,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>138</v>
@@ -4341,7 +4338,7 @@
         <v>139</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>160</v>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>140</v>
@@ -4361,7 +4358,7 @@
         <v>141</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>177</v>
@@ -4369,7 +4366,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>142</v>
@@ -4381,7 +4378,7 @@
         <v>143</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>157</v>
@@ -4389,7 +4386,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>144</v>
@@ -4402,7 +4399,7 @@
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>7</v>
@@ -4410,7 +4407,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>146</v>
@@ -4422,7 +4419,7 @@
         <v>147</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>178</v>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>148</v>
@@ -4442,7 +4439,7 @@
         <v>149</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>160</v>
@@ -4450,7 +4447,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>150</v>
@@ -4462,7 +4459,7 @@
         <v>151</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>7</v>
@@ -4470,7 +4467,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>152</v>
@@ -4482,7 +4479,7 @@
         <v>153</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>7</v>

--- a/src/main/resources/template/ExportIntetface.xlsx
+++ b/src/main/resources/template/ExportIntetface.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="195">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1739,10 +1739,6 @@
     <t>/api/fragment/findUserFragmentRecordForApp</t>
   </si>
   <si>
-    <t>碎片系统-套圈次数及倒计时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2466,10 +2462,6 @@
   </si>
   <si>
     <t>/api/operatingposition/list</t>
-  </si>
-  <si>
-    <t>待定（包含图片）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
@@ -2630,11 +2622,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>App</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.7</t>
+    <t>主页-弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/windowInfo/init</t>
+  </si>
+  <si>
+    <t>{"addr":"位置地址","content":"内容","file":"上传图片","lat":"经度","lng":"纬度"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱-吃大餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/chest/openchest</t>
+  </si>
+  <si>
+    <t>我的-邀请码按钮是否显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/invitation/button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利-套圈次数及倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>签到抽奖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今天是否已经抽过奖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/userchecklottery/islottery</t>
+  </si>
+  <si>
+    <t>/api/operatingposition/morelist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运营位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更多列表</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2705,12 +2797,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2727,14 +2879,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2748,6 +2897,54 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3043,7 +3240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3055,48 +3252,48 @@
     <col min="4" max="4" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="87.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>180</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -3104,19 +3301,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
@@ -3124,681 +3321,681 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
+      <c r="D4" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>182</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>182</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>182</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>182</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>182</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>182</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>182</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>182</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>182</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>182</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
+      <c r="D15" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>182</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>182</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>182</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>182</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>49</v>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>182</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>51</v>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>52</v>
+        <v>182</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>54</v>
+        <v>182</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>182</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>57</v>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>182</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>182</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>61</v>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>182</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>182</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>65</v>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>182</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>182</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>69</v>
+      <c r="D29" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>70</v>
+        <v>182</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>182</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>182</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>182</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>77</v>
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>78</v>
+        <v>182</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>79</v>
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>80</v>
+        <v>182</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>81</v>
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>82</v>
+        <v>182</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>83</v>
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>7</v>
+        <v>181</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>84</v>
+        <v>182</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>85</v>
+      <c r="D37" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>7</v>
@@ -3806,39 +4003,39 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>182</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>88</v>
+        <v>182</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>89</v>
+      <c r="D39" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>7</v>
@@ -3846,59 +4043,59 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>90</v>
+        <v>182</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>91</v>
+      <c r="D40" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>92</v>
+        <v>182</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>93</v>
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>94</v>
+        <v>182</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>95</v>
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>7</v>
@@ -3906,79 +4103,79 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>96</v>
+        <v>182</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>97</v>
+      <c r="D43" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>182</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>99</v>
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>182</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>101</v>
+      <c r="D45" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>182</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>7</v>
@@ -3986,39 +4183,39 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>104</v>
+        <v>182</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>105</v>
+      <c r="D47" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>182</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>107</v>
+      <c r="D48" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>7</v>
@@ -4026,159 +4223,159 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>182</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>159</v>
+      <c r="D49" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>109</v>
+        <v>182</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>110</v>
+      <c r="D50" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>112</v>
+      <c r="D51" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>174</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>113</v>
+        <v>182</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>114</v>
+      <c r="D52" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>115</v>
+        <v>182</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>116</v>
+      <c r="D53" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>117</v>
+        <v>182</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>119</v>
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>182</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>121</v>
+      <c r="D55" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>182</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>123</v>
+      <c r="D56" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>27</v>
@@ -4186,119 +4383,119 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>124</v>
+        <v>182</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>190</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>182</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>127</v>
+      <c r="D58" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>128</v>
+        <v>182</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>129</v>
+      <c r="D59" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>130</v>
+        <v>182</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>131</v>
+      <c r="D60" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>132</v>
+        <v>182</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>133</v>
+      <c r="D61" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>182</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>135</v>
+      <c r="D62" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>7</v>
@@ -4306,182 +4503,282 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>136</v>
+        <v>182</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>137</v>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>138</v>
+        <v>182</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>139</v>
+      <c r="D64" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>141</v>
+      <c r="D65" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>142</v>
+        <v>182</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>143</v>
+      <c r="D66" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>144</v>
+        <v>182</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" s="4"/>
+      <c r="D67" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="F67" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>146</v>
+        <v>182</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>147</v>
+      <c r="D68" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>148</v>
+        <v>182</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>149</v>
+      <c r="D69" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>150</v>
+        <v>182</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>151</v>
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B71" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="F76" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/template/ExportIntetface.xlsx
+++ b/src/main/resources/template/ExportIntetface.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"description":"俱乐部测试中","file":"","name":"俱乐部测试中"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/device/regis</t>
   </si>
   <si>
@@ -442,63 +438,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"code":200,"data":{"headImg":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","loginname":"13151815253","phone":"13151815253","nicknameFlag":false,"nickname":"zhouzhou","userType":1,"userId":37,"useAmount":99999999}}</t>
+  </si>
+  <si>
+    <t>useAmount</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"该用户申请不存在"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":[]}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":[{"method":"ali","wapImg":"/cdn/mall/ali-wappay.png","appImg":"/cdn/mall/ali-apppay.png","isH5":true,"name":"支付宝支付","value":"4","desc":"推荐使用"},{"method":"wx","wapImg":"/cdn/mall/wx-wappay.png","appImg":"/cdn/mall/wx-apppay.png","isH5":true,"name":"微信支付","value":"3"}]}</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"退出失败"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":[{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:50","upperLimit":100,"remark":"注：单个好友总流水100万以下不计入邀请返利；","id":1,"lowerLimit":0,"backPercent":0.0},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:53","upperLimit":500,"remark":"总流水在≥1000万，即可获得总流水1.0%的奖励；","id":2,"lowerLimit":100,"backPercent":0.01},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:58","upperLimit":1000,"remark":"总流水在≥1亿，即可获得总流水1.3%的奖励；","id":3,"lowerLimit":500,"backPercent":0.013},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:14:05","upperLimit":2000,"remark":"总流水在≥5亿，即可获得总流水1.5%的奖励；","id":4,"lowerLimit":1000,"backPercent":0.015},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:14:15","upperLimit":3000,"remark":"总流水在≥10亿，即可获得总流水1.7%的奖励；","id":5,"lowerLimit":2000,"backPercent":0.017},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-10-12 10:27:29","remark":"总流水在≥30亿，即可获得总流水2.5%的奖励；","id":6,"lowerLimit":3000,"backPercent":0.025}]}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"我要修改简介"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file":"","name":"俱乐部测试中","description":"创建俱乐部正在测试中，创建俱乐部正在测试中，创建俱乐部正在测试中，创建俱乐部正在测试中！"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":101,"message":"您已经创建过或加入过俱乐部"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"name":"400001001安卓线下新","description":"400001001安卓线下新","force":9,"version":"1.1.0","url":"www.baidu.com"}}</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"请不要邀请俱乐部成员"}</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"踢人失败"}</t>
+  </si>
+  <si>
+    <t>{"code":200}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"qrCodeUrl":"https://www.jddfun.com/m/?channel=400001001","awardRuleRemark":"邀请好友得奖励说明：\r\n1，\t邀请好友下载微竞猜APP并注册，让好友打开该页面，在右上方输入您的邀请码确认邀请关系即可；\r\n2，\t您邀请的好友在每局游戏中产生的流水，都会有一部分作为邀请返利返到您的账户，可在“我的好友—返利记录”中查看您的邀请返利记录；","invitationCode":"0000037"}}</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"您最多能加入一个俱乐部"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":1}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"feedback":[],"common":[{"amount":1000,"bizType":101,"thirdId":"jddgame_0001","price":1,"bizId":241,"name":"清凉啤酒","icon":"http://192.168.101.253/group1/M00/00/11/wKhl_VnbNyGASP-8AAASLhjBORI821.png","productIcon":"/group1/M00/00/02/wKhl_VmIF9iAASr_AAASLhjBORI008.png","remark":"","bizTarget":241},{"amount":5000,"bizType":101,"thirdId":"","price":5,"bizId":281,"name":"浓情黑啤","icon":"http://192.168.101.253/group1/M00/00/13/wKhl_Vnmze6AOcooAAAODJyIy98743.png","productIcon":"/cdn/recharge/5.png","remark":"11","bizTarget":281}],"welfare":[],"feedbackAutoOpen":false,"card":[{"bizType":106,"thirdId":"jddgame_0001","nextTime":0,"buyFlag":1,"price":30,"icon":"http://192.168.101.253/group1/M00/00/11/wKhl_VnbNzyAcQpqAAAb-Wq8eME950.png","bizId":242,"name":"周卡","remark":"","productIcon":"/group1/M00/00/03/wKhl_VmIHuaAaE2XAAAb-Wq8eME107.png","bizTarget":242,"content":"购买立得:5000;每天返还:5000"}]}}</t>
+  </si>
+  <si>
     <t>{"code":200,"data":[{"userStatus":4,"wechatNum":"hackzhou","headImage":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","nickname":"zhouzhou","id":100,"userId":37}]}</t>
   </si>
   <si>
-    <t>{"code":200,"data":{"headImg":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","loginname":"13151815253","phone":"13151815253","nicknameFlag":false,"nickname":"zhouzhou","userType":1,"userId":37,"useAmount":99999999}}</t>
-  </si>
-  <si>
-    <t>useAmount</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"feedback":[],"common":[{"amount":1000,"bizType":101,"thirdId":"jddgame_0001","price":1,"bizId":241,"name":"清凉啤酒","icon":"/group1/M00/00/11/wKhl_VnbNyGASP-8AAASLhjBORI821.png","productIcon":"/group1/M00/00/02/wKhl_VmIF9iAASr_AAASLhjBORI008.png","remark":"","bizTarget":241}],"welfare":[],"feedbackAutoOpen":false,"card":[{"bizType":106,"thirdId":"jddgame_0001","nextTime":0,"buyFlag":1,"icon":"/group1/M00/00/11/wKhl_VnbNzyAcQpqAAAb-Wq8eME950.png","remark":"","bizTarget":242,"content":"购买立得:5000;每天返还:5000","price":30,"bizId":242,"name":"周卡","productIcon":"/group1/M00/00/03/wKhl_VmIHuaAaE2XAAAb-Wq8eME107.png"}]}}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":0}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"该用户申请不存在"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":[]}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"邀请功能仅限部长使用"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"clubList":[{"image":"http://192.168.101.253/group1/M00/00/12/wKhl_Vnd5GCAENtSAAUkTx6lu94328.jpg","userStatus":4,"userCount":3,"createTime":"2017-10-11 17:23:50","name":"21621","clubId":30,"introduction":"电饭锅哈哈哈哈哈","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/12/wKhl_Vnd5VCAfGffAAKBlM-SqmA964.jpg","userCount":1,"createTime":"2017-10-11 17:33:06","name":"21623","clubId":31,"introduction":"xghjkkkkkjhg","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/12/wKhl_Vnd5deATZFJAAM-HbZzFG4038.jpg","userCount":1,"createTime":"2017-10-11 17:35:22","name":"21625","clubId":32,"introduction":"xgjkkvchhhjjh","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/12/wKhl_Vnd6QKAC8rtAAJlf60NHv0574.jpg","userCount":1,"createTime":"2017-10-11 17:43:07","name":"不吃不到你呢","clubId":33,"introduction":"基督教的将顶焦度计不打扮打扮吧好的很好好多好多宝贝都很好ff","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/12/wKhl_Vnd8LqAF5WxAAM_YrVtht0526.jpg","userCount":1,"createTime":"2017-10-14 00:03:48","name":"吃将错就错","clubId":34,"introduction":"吃吃吃姐姐都觉等多久","createDate":"2017-10-14"}],"inviteCount":0,"needWechat":false}}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"该申请已经提交，清耐心等待"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":[{"method":"ali","wapImg":"/cdn/mall/ali-wappay.png","appImg":"/cdn/mall/ali-apppay.png","isH5":true,"name":"支付宝支付","value":"4","desc":"推荐使用"},{"method":"wx","wapImg":"/cdn/mall/wx-wappay.png","appImg":"/cdn/mall/wx-apppay.png","isH5":true,"name":"微信支付","value":"3"}]}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"踢人仅限部长使用"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"name":"安卓俱乐部","description":"安卓俱乐部","force":9,"version":"1.0.0","url":"www"}}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"俱乐部简介只能部长修改"}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"退出失败"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":[{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:50","upperLimit":100,"remark":"注：单个好友总流水100万以下不计入邀请返利；","id":1,"lowerLimit":0,"backPercent":0.0},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:53","upperLimit":500,"remark":"总流水在≥1000万，即可获得总流水1.0%的奖励；","id":2,"lowerLimit":100,"backPercent":0.01},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:58","upperLimit":1000,"remark":"总流水在≥1亿，即可获得总流水1.3%的奖励；","id":3,"lowerLimit":500,"backPercent":0.013},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:14:05","upperLimit":2000,"remark":"总流水在≥5亿，即可获得总流水1.5%的奖励；","id":4,"lowerLimit":1000,"backPercent":0.015},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:14:15","upperLimit":3000,"remark":"总流水在≥10亿，即可获得总流水1.7%的奖励；","id":5,"lowerLimit":2000,"backPercent":0.017},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-10-12 10:27:29","remark":"总流水在≥30亿，即可获得总流水2.5%的奖励；","id":6,"lowerLimit":3000,"backPercent":0.025}]}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"qrCodeUrl":"http://192.168.101.181/download/index.html?channel=400001001","awardRuleRemark":"邀请好友得奖励说明：\r\n1，\t邀请好友下载微竞猜APP并注册，让好友打开该页面，在右上方输入您的邀请码确认邀请关系即可；\r\n2，\t您邀请的好友在每局游戏中产生的流水，都会有一部分作为邀请返利返到您的账户，可在“我的好友—返利记录”中查看您的邀请返利记录；","invitationCode":"0000037"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":200,"data":{}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"description":"我要修改简介"}</t>
+    <t>{"code":200,"data":{"applyCount":0,"clubDetail":{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoQWWAUkfkAAEU-5FxAdw648.jpg","userLevel":1,"userCount":1,"name":"我的俱乐部哈哈","clubId":37,"introduction":"??????","memberRspList":[{"headImage":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","nickname":"zhouzhou","userId":37,"accountAmount":99999999}],"createDate":"2017-10-18"}}}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"clubList":[{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoFxuAdDdhAADdCxgjNQ0894.jpg","userCount":7,"createTime":"2017-10-11 17:23:50","name":"21621","clubId":30,"introduction":"欢迎各位加入本俱乐部，玩的开心哟dxx","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnMUKARSCrAAErf0AaFQQ975.jpg","userCount":2,"createTime":"2017-10-14 00:03:48","name":"吃将错就错","clubId":34,"introduction":"吃吃吃姐姐都觉等多久哦","createDate":"2017-10-14"},{"image":"http://192.168.101.253/group1/M00/00/13/wKhl_Vnm-xmAEE3fAATBAjMczlQ728.jpg","userCount":2,"createTime":"2017-10-11 17:33:06","name":"21623","clubId":31,"introduction":"xghjkkkkkjhg","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnRUGARI5cAAU2nYoc0-k771.jpg","userCount":1,"createTime":"2017-10-18 20:07:40","name":"21624","clubId":38,"introduction":"Ghhbn","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoQWWAUkfkAAEU-5FxAdw648.jpg","userStatus":1,"userCount":1,"createTime":"2017-10-18 17:34:30","name":"我的俱乐部哈哈","clubId":37,"introduction":"??????","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnHQ2AUIqhAAMS2nr8VlQ260.jpg","userCount":1,"createTime":"2017-10-18 17:16:08","name":"哈哈哈","clubId":36,"introduction":"微信123456789","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnBKOAJhrGAAB63cXlU6U708.jpg","userCount":1,"createTime":"2017-10-18 15:31:58","name":"21622","clubId":35,"introduction":"T恤我默默额","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/12/wKhl_Vnd6QKAC8rtAAJlf60NHv0574.jpg","userCount":1,"createTime":"2017-10-11 17:43:07","name":"不吃不到你呢","clubId":33,"introduction":"基督教的将顶焦度计不打扮打扮吧好的很好好多好多宝贝都很好ff巴登巴登吧","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnAfSAXZspAAM2erPZoG8386.jpg","userCount":1,"createTime":"2017-10-11 17:35:22","name":"21625","clubId":32,"introduction":"xgjkkvchhhjjh","createDate":"2017-10-11"}],"inviteCount":0,"needWechat":true}}</t>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
@@ -972,13 +996,14 @@
     <col min="4" max="4" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="46" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -998,16 +1023,19 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,16 +1052,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>106</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,13 +1081,19 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1073,13 +1110,16 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,13 +1136,16 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,13 +1162,16 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,13 +1188,16 @@
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1165,13 +1214,19 @@
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,13 +1243,16 @@
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,13 +1269,16 @@
         <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,13 +1295,16 @@
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,13 +1321,16 @@
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,19 +1341,22 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1303,16 +1373,19 @@
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1329,13 +1402,16 @@
         <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1352,13 +1428,16 @@
         <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1375,13 +1454,16 @@
         <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1398,13 +1480,16 @@
         <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1421,16 +1506,19 @@
         <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1447,16 +1535,19 @@
         <v>11</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1473,36 +1564,42 @@
         <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1516,22 +1613,25 @@
         <v>55</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1548,16 +1648,19 @@
         <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1571,19 +1674,22 @@
         <v>56</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1597,19 +1703,22 @@
         <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1623,22 +1732,25 @@
         <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1655,13 +1767,16 @@
         <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1678,13 +1793,16 @@
         <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1695,19 +1813,22 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1724,13 +1845,16 @@
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -1747,22 +1871,28 @@
         <v>11</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>102</v>
+      <c r="I32" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"GET,POST"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/src/main/resources/template/ExportIntetface.xlsx
+++ b/src/main/resources/template/ExportIntetface.xlsx
@@ -47,8 +47,428 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AppClub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>俱乐部-主页游戏跑马灯列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/index/club</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-俱乐部列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/getclublist</t>
+  </si>
+  <si>
+    <t>俱乐部-创建俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/createclub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-加入俱乐部申请列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/applylist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-处理申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/dealapply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-头像修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/updateheadimg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-成员管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/memberlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-用户申请加入俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-用户退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-简介修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/updatedescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-获取用户身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/getuserlevel</t>
+  </si>
+  <si>
+    <t>俱乐部-邀请会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-邀请列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/invitationlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-部长踢人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/kickout/{userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱乐部-验证是否可以创建俱乐部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/club/verifycreateclub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clubId":1,"page":1,"pageSize":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clubUserApplyId":1,"status":8}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"orderType":0,"page":1,"pageSize":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clubId":1,"wechatNum":"hackzhou"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getinvitationuserinfo</t>
+  </si>
+  <si>
+    <t>/api/user/center/userinvitationcodebind</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/api/user/center/getleafchangeranking</t>
+  </si>
+  <si>
+    <t>邀请好友-根据邀请码获得用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请好友-绑定邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请好友-获得自己邀请码和二维码信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getinvitationcodeandqr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/bizLog/getBizDetails</t>
+  </si>
+  <si>
+    <t>/api/mall/pay/init</t>
+  </si>
+  <si>
+    <t>商城-支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/mall/list</t>
+  </si>
+  <si>
+    <t>商城-商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/mall/banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-轮播显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-上传渠道推广信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/uploadChannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共-版本更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/appVersionUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友盟推送-设备登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友盟推送-设备解绑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/getUserPersonalInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心-获取用户个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appVersion":"10","channelCode":"400001001","platformCode":"Android","platformVersion":"5.0","userAgent":"fe80::8438:38ff:fed6:e178%p2p0","uuid":"44421cd0-546e-3d09-8eef-854c3ebf0730"}</t>
+  </si>
+  <si>
+    <t>{"params":"2017-10","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>商城-资金明细-充值记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城-资金明细-金叶子记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/user/center/findLeafList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"invitationCode":"0000037","page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>邀请好友-我的好友-支持记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请好友-我的好友-返利记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/awardbacklog/backlist</t>
+  </si>
+  <si>
+    <t>{"page":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>{"parentInvitationCode":"0000037"}</t>
+  </si>
+  <si>
+    <t>/api/device/unRegis</t>
+  </si>
+  <si>
+    <t>{"bundleId":"com.beeplay23.wf001","clientVersion":"21","deviceToken":"","uuid":"44421cd0-546e-3d09-8eef-854c3ebf0730","clientType":1}</t>
+  </si>
+  <si>
+    <t>{"userId":"0000037"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/device/regis</t>
+  </si>
+  <si>
+    <t>/api/club/invite/{userId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code": 200}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_mall</t>
+  </si>
+  <si>
+    <t>api_mall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/awardbackrule/list</t>
+  </si>
+  <si>
+    <t>邀请好友-我的好友-返利说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非验证点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"timePeriod":"10月16-10月17","subChangeList":[],"subTotalChange":0}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timePeriod</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"您不能绑定自己"}</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"headImg":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","loginname":"13151815253","phone":"13151815253","nicknameFlag":false,"nickname":"zhouzhou","userType":1,"userId":37,"useAmount":99999999}}</t>
+  </si>
+  <si>
+    <t>useAmount</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"该用户申请不存在"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":[]}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":[{"method":"ali","wapImg":"/cdn/mall/ali-wappay.png","appImg":"/cdn/mall/ali-apppay.png","isH5":true,"name":"支付宝支付","value":"4","desc":"推荐使用"},{"method":"wx","wapImg":"/cdn/mall/wx-wappay.png","appImg":"/cdn/mall/wx-apppay.png","isH5":true,"name":"微信支付","value":"3"}]}</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"退出失败"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":[{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:50","upperLimit":100,"remark":"注：单个好友总流水100万以下不计入邀请返利；","id":1,"lowerLimit":0,"backPercent":0.0},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:53","upperLimit":500,"remark":"总流水在≥1000万，即可获得总流水1.0%的奖励；","id":2,"lowerLimit":100,"backPercent":0.01},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:58","upperLimit":1000,"remark":"总流水在≥1亿，即可获得总流水1.3%的奖励；","id":3,"lowerLimit":500,"backPercent":0.013},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:14:05","upperLimit":2000,"remark":"总流水在≥5亿，即可获得总流水1.5%的奖励；","id":4,"lowerLimit":1000,"backPercent":0.015},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:14:15","upperLimit":3000,"remark":"总流水在≥10亿，即可获得总流水1.7%的奖励；","id":5,"lowerLimit":2000,"backPercent":0.017},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-10-12 10:27:29","remark":"总流水在≥30亿，即可获得总流水2.5%的奖励；","id":6,"lowerLimit":3000,"backPercent":0.025}]}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"description":"我要修改简介"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"file":"","name":"俱乐部测试中","description":"创建俱乐部正在测试中，创建俱乐部正在测试中，创建俱乐部正在测试中，创建俱乐部正在测试中！"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":101,"message":"您已经创建过或加入过俱乐部"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"name":"400001001安卓线下新","description":"400001001安卓线下新","force":9,"version":"1.1.0","url":"www.baidu.com"}}</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"请不要邀请俱乐部成员"}</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"踢人失败"}</t>
+  </si>
+  <si>
+    <t>{"code":200}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"qrCodeUrl":"https://www.jddfun.com/m/?channel=400001001","awardRuleRemark":"邀请好友得奖励说明：\r\n1，\t邀请好友下载微竞猜APP并注册，让好友打开该页面，在右上方输入您的邀请码确认邀请关系即可；\r\n2，\t您邀请的好友在每局游戏中产生的流水，都会有一部分作为邀请返利返到您的账户，可在“我的好友—返利记录”中查看您的邀请返利记录；","invitationCode":"0000037"}}</t>
+  </si>
+  <si>
+    <t>{"code":101,"message":"您最多能加入一个俱乐部"}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":1}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"feedback":[],"common":[{"amount":1000,"bizType":101,"thirdId":"jddgame_0001","price":1,"bizId":241,"name":"清凉啤酒","icon":"http://192.168.101.253/group1/M00/00/11/wKhl_VnbNyGASP-8AAASLhjBORI821.png","productIcon":"/group1/M00/00/02/wKhl_VmIF9iAASr_AAASLhjBORI008.png","remark":"","bizTarget":241},{"amount":5000,"bizType":101,"thirdId":"","price":5,"bizId":281,"name":"浓情黑啤","icon":"http://192.168.101.253/group1/M00/00/13/wKhl_Vnmze6AOcooAAAODJyIy98743.png","productIcon":"/cdn/recharge/5.png","remark":"11","bizTarget":281}],"welfare":[],"feedbackAutoOpen":false,"card":[{"bizType":106,"thirdId":"jddgame_0001","nextTime":0,"buyFlag":1,"price":30,"icon":"http://192.168.101.253/group1/M00/00/11/wKhl_VnbNzyAcQpqAAAb-Wq8eME950.png","bizId":242,"name":"周卡","remark":"","productIcon":"/group1/M00/00/03/wKhl_VmIHuaAaE2XAAAb-Wq8eME107.png","bizTarget":242,"content":"购买立得:5000;每天返还:5000"}]}}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":[{"userStatus":4,"wechatNum":"hackzhou","headImage":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","nickname":"zhouzhou","id":100,"userId":37}]}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"applyCount":0,"clubDetail":{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoQWWAUkfkAAEU-5FxAdw648.jpg","userLevel":1,"userCount":1,"name":"我的俱乐部哈哈","clubId":37,"introduction":"??????","memberRspList":[{"headImage":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","nickname":"zhouzhou","userId":37,"accountAmount":99999999}],"createDate":"2017-10-18"}}}</t>
+  </si>
+  <si>
+    <t>{"code":200,"data":{"clubList":[{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoFxuAdDdhAADdCxgjNQ0894.jpg","userCount":7,"createTime":"2017-10-11 17:23:50","name":"21621","clubId":30,"introduction":"欢迎各位加入本俱乐部，玩的开心哟dxx","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnMUKARSCrAAErf0AaFQQ975.jpg","userCount":2,"createTime":"2017-10-14 00:03:48","name":"吃将错就错","clubId":34,"introduction":"吃吃吃姐姐都觉等多久哦","createDate":"2017-10-14"},{"image":"http://192.168.101.253/group1/M00/00/13/wKhl_Vnm-xmAEE3fAATBAjMczlQ728.jpg","userCount":2,"createTime":"2017-10-11 17:33:06","name":"21623","clubId":31,"introduction":"xghjkkkkkjhg","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnRUGARI5cAAU2nYoc0-k771.jpg","userCount":1,"createTime":"2017-10-18 20:07:40","name":"21624","clubId":38,"introduction":"Ghhbn","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoQWWAUkfkAAEU-5FxAdw648.jpg","userStatus":1,"userCount":1,"createTime":"2017-10-18 17:34:30","name":"我的俱乐部哈哈","clubId":37,"introduction":"??????","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnHQ2AUIqhAAMS2nr8VlQ260.jpg","userCount":1,"createTime":"2017-10-18 17:16:08","name":"哈哈哈","clubId":36,"introduction":"微信123456789","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnBKOAJhrGAAB63cXlU6U708.jpg","userCount":1,"createTime":"2017-10-18 15:31:58","name":"21622","clubId":35,"introduction":"T恤我默默额","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/12/wKhl_Vnd6QKAC8rtAAJlf60NHv0574.jpg","userCount":1,"createTime":"2017-10-11 17:43:07","name":"不吃不到你呢","clubId":33,"introduction":"基督教的将顶焦度计不打扮打扮吧好的很好好多好多宝贝都很好ff巴登巴登吧","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnAfSAXZspAAM2erPZoG8386.jpg","userCount":1,"createTime":"2017-10-11 17:35:22","name":"21625","clubId":32,"introduction":"xgjkkvchhhjjh","createDate":"2017-10-11"}],"inviteCount":0,"needWechat":true}}</t>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"params":"2017-10-20","page":1,"pageSize":10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>所属项目(</t>
+      <t>项目(</t>
     </r>
     <r>
       <rPr>
@@ -78,7 +498,7 @@
   </si>
   <si>
     <r>
-      <t>案例版本(</t>
+      <t>版本(</t>
     </r>
     <r>
       <rPr>
@@ -104,425 +524,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppClub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>俱乐部-主页游戏跑马灯列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/index/club</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-俱乐部列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/getclublist</t>
-  </si>
-  <si>
-    <t>俱乐部-创建俱乐部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/createclub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-加入俱乐部申请列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/applylist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-处理申请</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/dealapply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-头像修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/updateheadimg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-成员管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/memberlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-用户申请加入俱乐部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-用户退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/exit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-简介修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/updatedescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-获取用户身份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/getuserlevel</t>
-  </si>
-  <si>
-    <t>俱乐部-邀请会员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-邀请列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/invitationlist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-部长踢人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/kickout/{userId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俱乐部-验证是否可以创建俱乐部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/club/verifycreateclub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"clubId":1,"page":1,"pageSize":10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"clubUserApplyId":1,"status":8}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"file":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"orderType":0,"page":1,"pageSize":10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"clubId":1,"wechatNum":"hackzhou"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/user/center/getinvitationuserinfo</t>
-  </si>
-  <si>
-    <t>/api/user/center/userinvitationcodebind</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>/api/user/center/getleafchangeranking</t>
-  </si>
-  <si>
-    <t>邀请好友-根据邀请码获得用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请好友-绑定邀请码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请好友-获得自己邀请码和二维码信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/user/center/getinvitationcodeandqr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/bizLog/getBizDetails</t>
-  </si>
-  <si>
-    <t>/api/mall/pay/init</t>
-  </si>
-  <si>
-    <t>商城-支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/mall/list</t>
-  </si>
-  <si>
-    <t>商城-商品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/mall/banner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城-轮播显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-上传渠道推广信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/user/center/uploadChannel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共-版本更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/user/center/appVersionUpdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友盟推送-设备登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>友盟推送-设备解绑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/user/center/getUserPersonalInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心-获取用户个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"appVersion":"10","channelCode":"400001001","platformCode":"Android","platformVersion":"5.0","userAgent":"fe80::8438:38ff:fed6:e178%p2p0","uuid":"44421cd0-546e-3d09-8eef-854c3ebf0730"}</t>
-  </si>
-  <si>
-    <t>{"params":"2017-10","page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>商城-资金明细-充值记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城-资金明细-金叶子记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/user/center/findLeafList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"params":"2017-10-13","page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>{"invitationCode":"0000037","page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>邀请好友-我的好友-支持记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请好友-我的好友-返利记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/awardbacklog/backlist</t>
-  </si>
-  <si>
-    <t>{"page":1,"pageSize":10}</t>
-  </si>
-  <si>
-    <t>{"parentInvitationCode":"0000037"}</t>
-  </si>
-  <si>
-    <t>/api/device/unRegis</t>
-  </si>
-  <si>
-    <t>{"bundleId":"com.beeplay23.wf001","clientVersion":"21","deviceToken":"","uuid":"44421cd0-546e-3d09-8eef-854c3ebf0730","clientType":1}</t>
-  </si>
-  <si>
-    <t>{"userId":"0000037"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/device/regis</t>
-  </si>
-  <si>
-    <t>/api/club/invite/{userId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code": 200}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api_mall</t>
-  </si>
-  <si>
-    <t>api_mall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/awardbackrule/list</t>
-  </si>
-  <si>
-    <t>邀请好友-我的好友-返利说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非验证点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"timePeriod":"10月16-10月17","subChangeList":[],"subTotalChange":0}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timePeriod</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"您不能绑定自己"}</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"headImg":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","loginname":"13151815253","phone":"13151815253","nicknameFlag":false,"nickname":"zhouzhou","userType":1,"userId":37,"useAmount":99999999}}</t>
-  </si>
-  <si>
-    <t>useAmount</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"该用户申请不存在"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":[]}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":[{"method":"ali","wapImg":"/cdn/mall/ali-wappay.png","appImg":"/cdn/mall/ali-apppay.png","isH5":true,"name":"支付宝支付","value":"4","desc":"推荐使用"},{"method":"wx","wapImg":"/cdn/mall/wx-wappay.png","appImg":"/cdn/mall/wx-apppay.png","isH5":true,"name":"微信支付","value":"3"}]}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"退出失败"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":[{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:50","upperLimit":100,"remark":"注：单个好友总流水100万以下不计入邀请返利；","id":1,"lowerLimit":0,"backPercent":0.0},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:53","upperLimit":500,"remark":"总流水在≥1000万，即可获得总流水1.0%的奖励；","id":2,"lowerLimit":100,"backPercent":0.01},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:13:58","upperLimit":1000,"remark":"总流水在≥1亿，即可获得总流水1.3%的奖励；","id":3,"lowerLimit":500,"backPercent":0.013},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:14:05","upperLimit":2000,"remark":"总流水在≥5亿，即可获得总流水1.5%的奖励；","id":4,"lowerLimit":1000,"backPercent":0.015},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-07-17 17:14:15","upperLimit":3000,"remark":"总流水在≥10亿，即可获得总流水1.7%的奖励；","id":5,"lowerLimit":2000,"backPercent":0.017},{"deleteFlag":0,"createTime":"2017-06-04 00:00:00","enable":1,"updateTime":"2017-10-12 10:27:29","remark":"总流水在≥30亿，即可获得总流水2.5%的奖励；","id":6,"lowerLimit":3000,"backPercent":0.025}]}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"description":"我要修改简介"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"file":"","name":"俱乐部测试中","description":"创建俱乐部正在测试中，创建俱乐部正在测试中，创建俱乐部正在测试中，创建俱乐部正在测试中！"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":101,"message":"您已经创建过或加入过俱乐部"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"name":"400001001安卓线下新","description":"400001001安卓线下新","force":9,"version":"1.1.0","url":"www.baidu.com"}}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"请不要邀请俱乐部成员"}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"踢人失败"}</t>
-  </si>
-  <si>
-    <t>{"code":200}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"qrCodeUrl":"https://www.jddfun.com/m/?channel=400001001","awardRuleRemark":"邀请好友得奖励说明：\r\n1，\t邀请好友下载微竞猜APP并注册，让好友打开该页面，在右上方输入您的邀请码确认邀请关系即可；\r\n2，\t您邀请的好友在每局游戏中产生的流水，都会有一部分作为邀请返利返到您的账户，可在“我的好友—返利记录”中查看您的邀请返利记录；","invitationCode":"0000037"}}</t>
-  </si>
-  <si>
-    <t>{"code":101,"message":"您最多能加入一个俱乐部"}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":1}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"feedback":[],"common":[{"amount":1000,"bizType":101,"thirdId":"jddgame_0001","price":1,"bizId":241,"name":"清凉啤酒","icon":"http://192.168.101.253/group1/M00/00/11/wKhl_VnbNyGASP-8AAASLhjBORI821.png","productIcon":"/group1/M00/00/02/wKhl_VmIF9iAASr_AAASLhjBORI008.png","remark":"","bizTarget":241},{"amount":5000,"bizType":101,"thirdId":"","price":5,"bizId":281,"name":"浓情黑啤","icon":"http://192.168.101.253/group1/M00/00/13/wKhl_Vnmze6AOcooAAAODJyIy98743.png","productIcon":"/cdn/recharge/5.png","remark":"11","bizTarget":281}],"welfare":[],"feedbackAutoOpen":false,"card":[{"bizType":106,"thirdId":"jddgame_0001","nextTime":0,"buyFlag":1,"price":30,"icon":"http://192.168.101.253/group1/M00/00/11/wKhl_VnbNzyAcQpqAAAb-Wq8eME950.png","bizId":242,"name":"周卡","remark":"","productIcon":"/group1/M00/00/03/wKhl_VmIHuaAaE2XAAAb-Wq8eME107.png","bizTarget":242,"content":"购买立得:5000;每天返还:5000"}]}}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":[{"userStatus":4,"wechatNum":"hackzhou","headImage":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","nickname":"zhouzhou","id":100,"userId":37}]}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"applyCount":0,"clubDetail":{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoQWWAUkfkAAEU-5FxAdw648.jpg","userLevel":1,"userCount":1,"name":"我的俱乐部哈哈","clubId":37,"introduction":"??????","memberRspList":[{"headImage":"http://192.168.101.253/cdn/c7ea/1334/16a3/4de7/b3da/426c/802a/5b05/c7ea133416a34de7b3da426c802a5b05.png","nickname":"zhouzhou","userId":37,"accountAmount":99999999}],"createDate":"2017-10-18"}}}</t>
-  </si>
-  <si>
-    <t>{"code":200,"data":{"clubList":[{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoFxuAdDdhAADdCxgjNQ0894.jpg","userCount":7,"createTime":"2017-10-11 17:23:50","name":"21621","clubId":30,"introduction":"欢迎各位加入本俱乐部，玩的开心哟dxx","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnMUKARSCrAAErf0AaFQQ975.jpg","userCount":2,"createTime":"2017-10-14 00:03:48","name":"吃将错就错","clubId":34,"introduction":"吃吃吃姐姐都觉等多久哦","createDate":"2017-10-14"},{"image":"http://192.168.101.253/group1/M00/00/13/wKhl_Vnm-xmAEE3fAATBAjMczlQ728.jpg","userCount":2,"createTime":"2017-10-11 17:33:06","name":"21623","clubId":31,"introduction":"xghjkkkkkjhg","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnRUGARI5cAAU2nYoc0-k771.jpg","userCount":1,"createTime":"2017-10-18 20:07:40","name":"21624","clubId":38,"introduction":"Ghhbn","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnoQWWAUkfkAAEU-5FxAdw648.jpg","userStatus":1,"userCount":1,"createTime":"2017-10-18 17:34:30","name":"我的俱乐部哈哈","clubId":37,"introduction":"??????","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnHQ2AUIqhAAMS2nr8VlQ260.jpg","userCount":1,"createTime":"2017-10-18 17:16:08","name":"哈哈哈","clubId":36,"introduction":"微信123456789","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnBKOAJhrGAAB63cXlU6U708.jpg","userCount":1,"createTime":"2017-10-18 15:31:58","name":"21622","clubId":35,"introduction":"T恤我默默额","createDate":"2017-10-18"},{"image":"http://192.168.101.253/group1/M00/00/12/wKhl_Vnd6QKAC8rtAAJlf60NHv0574.jpg","userCount":1,"createTime":"2017-10-11 17:43:07","name":"不吃不到你呢","clubId":33,"introduction":"基督教的将顶焦度计不打扮打扮吧好的很好好多好多宝贝都很好ff巴登巴登吧","createDate":"2017-10-11"},{"image":"http://192.168.101.253/group1/M00/00/14/wKhl_VnnAfSAXZspAAM2erPZoG8386.jpg","userCount":1,"createTime":"2017-10-11 17:35:22","name":"21625","clubId":32,"introduction":"xgjkkvchhhjjh","createDate":"2017-10-11"}],"inviteCount":0,"needWechat":true}}</t>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,22 +991,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="46" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1020,867 +1021,867 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
